--- a/Timing Data.xlsx
+++ b/Timing Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myemailindwes-my.sharepoint.com/personal/braden_batman_myemail_indwes_edu/Documents/Semester 6/Concurrent Programming/HPC Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{9249900E-B329-D84A-969A-93FA83184E91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{75ECE0FF-6A72-1D45-8A86-E4D2C150A103}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{9249900E-B329-D84A-969A-93FA83184E91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A917256E-16E3-EB42-A7DE-978E206A0F00}"/>
   <bookViews>
-    <workbookView xWindow="11800" yWindow="500" windowWidth="16620" windowHeight="16340" xr2:uid="{3CD181B4-68F6-3C42-B248-F92DDA274EC1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{3CD181B4-68F6-3C42-B248-F92DDA274EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>input size (x=y)_</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Sequential Time (ms)</t>
   </si>
   <si>
-    <t>Parallel Time (ms)</t>
+    <t>Parallel Spotwise Time (ms)</t>
+  </si>
+  <si>
+    <t>Parallel Rowwise Time (ms)</t>
+  </si>
+  <si>
+    <t>Matrix Dimension</t>
   </si>
 </sst>
 </file>
@@ -102,6 +105,3525 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sequential,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Parallel Rowwise, and Parallel Spotwise Exectution Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27053</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>741687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4395065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40D7-3940-8C75-1092A229C082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Spotwise Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>537841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>930007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1359721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1856062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-40D7-3940-8C75-1092A229C082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Rowwise Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54958</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>557688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C2F-2C43-842B-7858FA0A7283}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1193662512"/>
+        <c:axId val="1193664160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1193662512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193664160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1193664160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193662512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sequential,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Parallel Rowwise, and Parallel Spotwise Exectution Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27053</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>741687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4395065</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63983073</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>965630898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D86-4B4E-AF7D-B95BE0CF0DB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Spotwise Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>33486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>537841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>930007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1359721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1856062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D86-4B4E-AF7D-B95BE0CF0DB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Rowwise Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54958</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>557688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5203414</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50360826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D86-4B4E-AF7D-B95BE0CF0DB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1193662512"/>
+        <c:axId val="1193664160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1193662512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193664160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1193664160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193662512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sequential</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Parallel Rowwise Exectution Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27053</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81F5-DD4F-B7F1-CC95CD7B6993}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel Rowwise Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-81F5-DD4F-B7F1-CC95CD7B6993}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1193662512"/>
+        <c:axId val="1193664160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1193662512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193664160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1193664160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193662512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139321</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7AB615-8185-ED42-8157-AF480E88B07E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>202044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>720815</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>49645</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30A38EC-C273-894A-977C-BE1676C11B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28864</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>143543</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>107372</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C75ABFB-3275-B648-93A5-D55D34CB8B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,48 +3923,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5402F5-131B-BE48-8794-C669122AC376}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="J8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>25</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>75</v>
+      </c>
+      <c r="E1">
+        <v>100</v>
+      </c>
+      <c r="F1">
+        <v>125</v>
+      </c>
+      <c r="G1">
+        <v>150</v>
+      </c>
+      <c r="H1">
+        <v>175</v>
+      </c>
+      <c r="I1">
+        <v>200</v>
+      </c>
+      <c r="J1">
+        <v>500</v>
+      </c>
+      <c r="K1">
+        <v>1000</v>
+      </c>
+      <c r="L1">
+        <v>2000</v>
+      </c>
+      <c r="M1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>100</v>
-      </c>
-      <c r="C1">
-        <v>200</v>
+      <c r="B2" s="1">
+        <v>183</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1071</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3509</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8216</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15290</v>
+      </c>
+      <c r="G2" s="1">
+        <v>18485</v>
+      </c>
+      <c r="H2" s="1">
+        <v>27053</v>
+      </c>
+      <c r="I2" s="1">
+        <v>36073</v>
+      </c>
+      <c r="J2" s="1">
+        <v>741687</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4395065</v>
+      </c>
+      <c r="L2" s="1">
+        <v>63983073</v>
+      </c>
+      <c r="M2" s="1">
+        <v>965630898</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>3189</v>
-      </c>
-      <c r="C2" s="1">
-        <v>25186</v>
+      <c r="B3" s="1">
+        <v>33486</v>
+      </c>
+      <c r="C3" s="1">
+        <v>141351</v>
+      </c>
+      <c r="D3" s="1">
+        <v>330364</v>
+      </c>
+      <c r="E3" s="1">
+        <v>537841</v>
+      </c>
+      <c r="F3" s="1">
+        <v>930007</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1359721</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1856062</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>422980</v>
-      </c>
-      <c r="C3" s="1">
-        <v>452321</v>
+      <c r="B4" s="1">
+        <v>1846</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3608</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5546</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6974</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9030</v>
+      </c>
+      <c r="G4" s="1">
+        <v>11532</v>
+      </c>
+      <c r="H4" s="1">
+        <v>14079</v>
+      </c>
+      <c r="I4" s="1">
+        <v>15613</v>
+      </c>
+      <c r="J4" s="1">
+        <v>54958</v>
+      </c>
+      <c r="K4" s="1">
+        <v>557688</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5203414</v>
+      </c>
+      <c r="M4" s="1">
+        <v>50360826</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>